--- a/Employee_Reports28/Ifran Ansari Q0600.xlsx
+++ b/Employee_Reports28/Ifran Ansari Q0600.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,10 +28,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="4">
@@ -77,7 +74,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -574,11 +571,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -623,11 +620,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -672,11 +669,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -721,11 +718,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -770,11 +767,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -819,11 +816,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -868,11 +865,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -917,11 +914,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -966,11 +963,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1015,11 +1012,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1064,11 +1061,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1113,11 +1110,11 @@
         </is>
       </c>
       <c r="H14" s="4" t="n">
-        <v>-19610</v>
+        <v>-19618</v>
       </c>
       <c r="I14" s="4" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J14" s="4" t="inlineStr">
@@ -1164,11 +1161,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1211,11 +1208,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1255,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1295,11 +1292,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1332,11 +1329,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1372,7 +1369,7 @@
     <col width="24" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="2" customWidth="1" min="6" max="6"/>
     <col width="2" customWidth="1" min="7" max="7"/>
   </cols>
@@ -1432,7 +1429,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F3" s="3" t="n"/>
@@ -1457,7 +1454,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F4" s="3" t="n"/>
@@ -1482,7 +1479,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F5" s="3" t="n"/>
